--- a/1week/hitter_data.xlsx
+++ b/1week/hitter_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,32 +533,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.342</t>
+          <t>0.339</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>609</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>551</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>187</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>244</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -861,37 +861,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.324</t>
+          <t>0.323</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>122</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>523</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>473</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>153</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>218</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -933,77 +933,77 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>박건우</t>
+          <t>김선빈</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.321</t>
+          <t>0.320</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>119</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>473</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>419</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>134</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>150</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>48</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1015,77 +1015,77 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>김선빈</t>
+          <t>박건우</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.317</t>
+          <t>0.319</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>533</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>458</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>146</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>220</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>85</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1112,17 +1112,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>124</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>509</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>452</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>143</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>183</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1271,37 +1271,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.309</t>
+          <t>0.312</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>138</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>559</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>493</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>154</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>232</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1353,22 +1353,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.309</t>
+          <t>0.305</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>510</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>439</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1686,17 +1686,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>131</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>595</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>514</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>278</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>소크라테스</t>
+          <t>정수빈</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>두산</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2506,62 +2506,62 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>583</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>498</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>143</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>185</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>33</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2573,77 +2573,77 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>마틴</t>
+          <t>피렐라</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.287</t>
+          <t>0.285</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>605</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>557</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>159</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
     </row>
@@ -2655,12 +2655,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>피렐라</t>
+          <t>소크라테스</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2670,52 +2670,52 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>608</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>547</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>91</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>156</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>253</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2819,77 +2819,77 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>정수빈</t>
+          <t>박병호</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>두산</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.284</t>
+          <t>0.283</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>132</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>493</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>431</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>53</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>191</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>87</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2901,12 +2901,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>박병호</t>
+          <t>마틴</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2916,1702 +2916,62 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>118</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>503</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>양석환</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.281</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>519</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>김현준</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.275</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>김상수</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>KT</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.271</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>최지훈</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SSG</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.269</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>류지혁</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.268</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>522</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>오지환</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.268</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>422</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>박성한</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>SSG</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.268</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>허경민</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.267</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>427</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>강승호</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.266</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>413</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>문현빈</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.266</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>477</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>채은성</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.263</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>517</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>김민석</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>롯데</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.256</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>로하스</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.256</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>399</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>추신수</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>SSG</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>376</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>박동원</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.249</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>409</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>이재현</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.249</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>538</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>458</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>최주환</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>SSG</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.237</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>422</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>김주원</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.232</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>396</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>정은원</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.222</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>458</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>387</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>김재환</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.220</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>405</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
